--- a/teaching/traditional_assets/database/data/united_states/united_states_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/united_states/united_states_insurance_life.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.002075</v>
+        <v>0.0229</v>
       </c>
       <c r="E2">
-        <v>0.034</v>
+        <v>-0.002195</v>
       </c>
       <c r="F2">
-        <v>0.07585</v>
+        <v>0.073</v>
       </c>
       <c r="G2">
-        <v>0.121914980046638</v>
+        <v>0.1183543524987518</v>
       </c>
       <c r="H2">
-        <v>0.121914980046638</v>
+        <v>0.1183543524987518</v>
       </c>
       <c r="I2">
-        <v>0.1328835641180316</v>
+        <v>0.08481667836382674</v>
       </c>
       <c r="J2">
-        <v>0.1114621853663055</v>
+        <v>0.06893754304886462</v>
       </c>
       <c r="K2">
-        <v>20925.25</v>
+        <v>14769.88</v>
       </c>
       <c r="L2">
-        <v>0.0895610397311138</v>
+        <v>0.06537636198172103</v>
       </c>
       <c r="M2">
-        <v>15792.503</v>
+        <v>11291.624</v>
       </c>
       <c r="N2">
-        <v>0.08327130542807006</v>
+        <v>0.06777270539258701</v>
       </c>
       <c r="O2">
-        <v>0.7547103618833706</v>
+        <v>0.7645034353698202</v>
       </c>
       <c r="P2">
-        <v>5454.812</v>
+        <v>5604.861</v>
       </c>
       <c r="Q2">
-        <v>0.02876233844025242</v>
+        <v>0.03364056342288767</v>
       </c>
       <c r="R2">
-        <v>0.2606808520806203</v>
+        <v>0.3794791156055432</v>
       </c>
       <c r="S2">
-        <v>10337.691</v>
+        <v>5686.763</v>
       </c>
       <c r="T2">
-        <v>0.6545948416156705</v>
+        <v>0.5036266705302975</v>
       </c>
       <c r="U2">
-        <v>56705.7</v>
+        <v>70447.00999999999</v>
       </c>
       <c r="V2">
-        <v>0.2989999535990281</v>
+        <v>0.4228253132161175</v>
       </c>
       <c r="W2">
-        <v>0.07183252299497063</v>
+        <v>0.04536979490366688</v>
       </c>
       <c r="X2">
-        <v>0.07697536822723021</v>
+        <v>0.06248636801465463</v>
       </c>
       <c r="Y2">
-        <v>-0.00514284523225958</v>
+        <v>-0.01711657311098774</v>
       </c>
       <c r="Z2">
-        <v>0.7240380926638224</v>
+        <v>0.602208697836442</v>
       </c>
       <c r="AA2">
-        <v>0.06954661986763841</v>
+        <v>0.04828897013634673</v>
       </c>
       <c r="AB2">
-        <v>0.06866895160944214</v>
+        <v>0.05413328107069128</v>
       </c>
       <c r="AC2">
-        <v>0.002549690552878035</v>
+        <v>-0.003624701701267059</v>
       </c>
       <c r="AD2">
-        <v>181407.689</v>
+        <v>196572.6</v>
       </c>
       <c r="AE2">
-        <v>3527.717303793474</v>
+        <v>3346.060853507875</v>
       </c>
       <c r="AF2">
-        <v>184935.4063037935</v>
+        <v>199918.6608535079</v>
       </c>
       <c r="AG2">
-        <v>128229.7063037935</v>
+        <v>129471.6508535079</v>
       </c>
       <c r="AH2">
-        <v>0.4937053359398788</v>
+        <v>0.545437705472831</v>
       </c>
       <c r="AI2">
-        <v>0.4096963216604843</v>
+        <v>0.414882228439277</v>
       </c>
       <c r="AJ2">
-        <v>0.403389142791881</v>
+        <v>0.4372833068973432</v>
       </c>
       <c r="AK2">
-        <v>0.3248866435019612</v>
+        <v>0.3146934866544137</v>
       </c>
       <c r="AL2">
-        <v>3855.986</v>
+        <v>2338.57</v>
       </c>
       <c r="AM2">
-        <v>3855.986</v>
+        <v>2338.416</v>
       </c>
       <c r="AN2">
-        <v>5.447374244182585</v>
+        <v>8.562799113561418</v>
       </c>
       <c r="AO2">
-        <v>8.05170195120003</v>
+        <v>8.192792176415502</v>
       </c>
       <c r="AP2">
-        <v>3.850526972196762</v>
+        <v>5.639848774242955</v>
       </c>
       <c r="AQ2">
-        <v>8.05170195120003</v>
+        <v>8.193331725407285</v>
       </c>
     </row>
     <row r="3">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0267</v>
+        <v>-0.011</v>
       </c>
       <c r="E3">
-        <v>0.07290000000000001</v>
+        <v>-0.243</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,34 +740,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01569125873655843</v>
+        <v>0.01291925271135323</v>
       </c>
       <c r="J3">
-        <v>0.009519917117065431</v>
+        <v>0.006459626355676615</v>
       </c>
       <c r="K3">
-        <v>3.44</v>
+        <v>1.46</v>
       </c>
       <c r="L3">
-        <v>0.01405803024111157</v>
+        <v>0.005913325232887809</v>
       </c>
       <c r="M3">
-        <v>0.512</v>
+        <v>0.171</v>
       </c>
       <c r="N3">
-        <v>0.002385834109972041</v>
+        <v>0.000817790530846485</v>
       </c>
       <c r="O3">
-        <v>0.1488372093023256</v>
+        <v>0.1171232876712329</v>
       </c>
       <c r="P3">
-        <v>0.512</v>
+        <v>0.171</v>
       </c>
       <c r="Q3">
-        <v>0.002385834109972041</v>
+        <v>0.000817790530846485</v>
       </c>
       <c r="R3">
-        <v>0.1488372093023256</v>
+        <v>0.1171232876712329</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -782,40 +782,40 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.07004930057574695</v>
+        <v>0.05483431728939479</v>
       </c>
       <c r="Z3">
-        <v>36279.07017983649</v>
+        <v>39935.12146031728</v>
       </c>
       <c r="AA3">
-        <v>345.3737411962434</v>
+        <v>257.9659631022123</v>
       </c>
       <c r="AB3">
-        <v>0.07004799471107868</v>
+        <v>0.05483334310682499</v>
       </c>
       <c r="AC3">
-        <v>345.3036932015323</v>
+        <v>257.9111297591054</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.00674493582076427</v>
+        <v>0.00618252783443615</v>
       </c>
       <c r="AF3">
-        <v>0.00674493582076427</v>
+        <v>0.00618252783443615</v>
       </c>
       <c r="AG3">
-        <v>0.00674493582076427</v>
+        <v>0.00618252783443615</v>
       </c>
       <c r="AH3">
-        <v>3.142928160427286e-05</v>
+        <v>2.956645164526967e-05</v>
       </c>
       <c r="AI3">
         <v>1</v>
       </c>
       <c r="AJ3">
-        <v>3.142928160427286e-05</v>
+        <v>2.956645164526967e-05</v>
       </c>
       <c r="AK3">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>6.74493582076427</v>
+        <v>6.18252783443615</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Primerica, Inc. (NYSE:PRI)</t>
+          <t>American Equity Investment Life Holding Company (NYSE:AEL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,121 +850,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.09359999999999999</v>
+        <v>0.0977</v>
       </c>
       <c r="E4">
-        <v>0.157</v>
+        <v>0.324</v>
       </c>
       <c r="G4">
-        <v>0.240954467981495</v>
+        <v>0.1448583253740847</v>
       </c>
       <c r="H4">
-        <v>0.240954467981495</v>
+        <v>0.1448583253740847</v>
       </c>
       <c r="I4">
-        <v>0.2595042758138801</v>
+        <v>0.4474086633108295</v>
       </c>
       <c r="J4">
-        <v>0.2014816088302193</v>
+        <v>0.3634346387313748</v>
       </c>
       <c r="K4">
-        <v>359.4</v>
+        <v>882.9</v>
       </c>
       <c r="L4">
-        <v>0.175018261504748</v>
+        <v>0.3513610315186246</v>
       </c>
       <c r="M4">
-        <v>285.7</v>
+        <v>27.3</v>
       </c>
       <c r="N4">
-        <v>0.05291230669506435</v>
+        <v>0.01072607260726073</v>
       </c>
       <c r="O4">
-        <v>0.7949360044518642</v>
+        <v>0.0309208290859667</v>
       </c>
       <c r="P4">
-        <v>54.3</v>
+        <v>27.3</v>
       </c>
       <c r="Q4">
-        <v>0.01005648671173257</v>
+        <v>0.01072607260726073</v>
       </c>
       <c r="R4">
-        <v>0.151085141903172</v>
+        <v>0.0309208290859667</v>
       </c>
       <c r="S4">
-        <v>231.4</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.8099404970248512</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>237.7</v>
+        <v>2656.6</v>
       </c>
       <c r="V4">
-        <v>0.04402259468469302</v>
+        <v>1.043768662580544</v>
       </c>
       <c r="W4">
-        <v>0.2489781780394874</v>
+        <v>0.2139481910485376</v>
       </c>
       <c r="X4">
-        <v>0.08185329832734892</v>
+        <v>0.06248636801465463</v>
       </c>
       <c r="Y4">
-        <v>0.1671248797121384</v>
+        <v>0.1514618230338829</v>
       </c>
       <c r="Z4">
-        <v>0.7849951142823166</v>
+        <v>0.6632691011105374</v>
       </c>
       <c r="AA4">
-        <v>0.158162078549463</v>
+        <v>0.2410549661437919</v>
       </c>
       <c r="AB4">
-        <v>0.06750415748975359</v>
+        <v>0.05431679861652523</v>
       </c>
       <c r="AC4">
-        <v>0.09065792105970939</v>
+        <v>0.1867381675272667</v>
       </c>
       <c r="AD4">
-        <v>1608.9</v>
+        <v>573.6</v>
       </c>
       <c r="AE4">
-        <v>62.53984808098618</v>
+        <v>12.40755416273816</v>
       </c>
       <c r="AF4">
-        <v>1671.439848080986</v>
+        <v>586.0075541627382</v>
       </c>
       <c r="AG4">
-        <v>1433.739848080986</v>
+        <v>-2070.592445837262</v>
       </c>
       <c r="AH4">
-        <v>0.2363815679374794</v>
+        <v>0.1871506580212733</v>
       </c>
       <c r="AI4">
-        <v>0.5097034451624861</v>
+        <v>0.0874024033753575</v>
       </c>
       <c r="AJ4">
-        <v>0.2098184580018263</v>
+        <v>-4.362746500084737</v>
       </c>
       <c r="AK4">
-        <v>0.4713861792688933</v>
+        <v>-0.5114964012524905</v>
       </c>
       <c r="AL4">
-        <v>74.5</v>
+        <v>33.4</v>
       </c>
       <c r="AM4">
-        <v>74.5</v>
+        <v>33.4</v>
       </c>
       <c r="AN4">
-        <v>2.863320875600641</v>
+        <v>0.5067898889409186</v>
       </c>
       <c r="AO4">
-        <v>7.213422818791946</v>
+        <v>33.66167664670659</v>
       </c>
       <c r="AP4">
-        <v>2.551592539741923</v>
+        <v>-1.829420006394301</v>
       </c>
       <c r="AQ4">
-        <v>7.213422818791946</v>
+        <v>33.66167664670659</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Principal Financial Group, Inc. (NasdaqGS:PFG)</t>
+          <t>Primerica, Inc. (NYSE:PRI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,118 +984,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0926</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="E5">
-        <v>0.0373</v>
-      </c>
-      <c r="F5">
-        <v>0.0554</v>
+        <v>0.152</v>
       </c>
       <c r="G5">
-        <v>0.1247687435326581</v>
+        <v>0.2594606843417177</v>
       </c>
       <c r="H5">
-        <v>0.1247687435326581</v>
+        <v>0.2594606843417177</v>
       </c>
       <c r="I5">
-        <v>0.09863169061345492</v>
+        <v>0.2616529448170951</v>
       </c>
       <c r="J5">
-        <v>0.0857488753783663</v>
+        <v>0.1997656030824</v>
       </c>
       <c r="K5">
-        <v>1329.8</v>
+        <v>379.6</v>
       </c>
       <c r="L5">
-        <v>0.08339656956508106</v>
+        <v>0.1720371629277136</v>
       </c>
       <c r="M5">
-        <v>1013.3</v>
+        <v>330.6</v>
       </c>
       <c r="N5">
-        <v>0.06677517990352427</v>
+        <v>0.06280514447462908</v>
       </c>
       <c r="O5">
-        <v>0.7619942848548654</v>
+        <v>0.8709167544783982</v>
       </c>
       <c r="P5">
-        <v>605.7</v>
+        <v>62.7</v>
       </c>
       <c r="Q5">
-        <v>0.03991485884492712</v>
+        <v>0.01191132050380896</v>
       </c>
       <c r="R5">
-        <v>0.4554820273725373</v>
+        <v>0.1651738672286618</v>
       </c>
       <c r="S5">
-        <v>407.6</v>
+        <v>267.9</v>
       </c>
       <c r="T5">
-        <v>0.4022500740155926</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="U5">
-        <v>3198</v>
+        <v>330.9</v>
       </c>
       <c r="V5">
-        <v>0.2107441284234389</v>
+        <v>0.06286213643876214</v>
       </c>
       <c r="W5">
-        <v>0.1136503486941064</v>
+        <v>0.2360990172907078</v>
       </c>
       <c r="X5">
-        <v>0.08097750993514156</v>
+        <v>0.06622240432456108</v>
       </c>
       <c r="Y5">
-        <v>0.03267283875896483</v>
+        <v>0.1698766129661467</v>
       </c>
       <c r="Z5">
-        <v>1.424590398349804</v>
+        <v>0.7400354586938606</v>
       </c>
       <c r="AA5">
-        <v>0.1221570245333145</v>
+        <v>0.1478336297083395</v>
       </c>
       <c r="AB5">
-        <v>0.06765084512673075</v>
+        <v>0.05412898852593807</v>
       </c>
       <c r="AC5">
-        <v>0.05450617940658378</v>
+        <v>0.09370464118240147</v>
       </c>
       <c r="AD5">
-        <v>4136.6</v>
+        <v>1746.3</v>
       </c>
       <c r="AE5">
-        <v>212.3418866157728</v>
+        <v>57.31388630539858</v>
       </c>
       <c r="AF5">
-        <v>4348.941886615773</v>
+        <v>1803.613886305399</v>
       </c>
       <c r="AG5">
-        <v>1150.941886615773</v>
+        <v>1472.713886305399</v>
       </c>
       <c r="AH5">
-        <v>0.222751453685071</v>
+        <v>0.2551977845845101</v>
       </c>
       <c r="AI5">
-        <v>0.2219862481937159</v>
+        <v>0.5118066910333092</v>
       </c>
       <c r="AJ5">
-        <v>0.07049859630326157</v>
+        <v>0.2186133733000821</v>
       </c>
       <c r="AK5">
-        <v>0.07020917134088875</v>
+        <v>0.4612155841423515</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>84.2</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>84.2</v>
       </c>
       <c r="AN5">
-        <v>2.257722956009169</v>
+        <v>2.880257298367145</v>
+      </c>
+      <c r="AO5">
+        <v>6.904988123515439</v>
       </c>
       <c r="AP5">
-        <v>0.6281748098546954</v>
+        <v>2.429018450116113</v>
+      </c>
+      <c r="AQ5">
+        <v>6.904988123515439</v>
       </c>
     </row>
     <row r="6">
@@ -1115,124 +1118,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.009300000000000001</v>
+        <v>0.007860000000000001</v>
       </c>
       <c r="E6">
-        <v>0.008409999999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.0341</v>
+        <v>0.13</v>
       </c>
       <c r="G6">
-        <v>0.1948694457169033</v>
+        <v>0.2158721436094702</v>
       </c>
       <c r="H6">
-        <v>0.1948694457169033</v>
+        <v>0.2158721436094702</v>
       </c>
       <c r="I6">
-        <v>0.1999477624593013</v>
+        <v>0.1949080175032929</v>
       </c>
       <c r="J6">
-        <v>0.1482824282179928</v>
+        <v>0.1949080175032929</v>
       </c>
       <c r="K6">
-        <v>3048</v>
+        <v>4607</v>
       </c>
       <c r="L6">
-        <v>0.1396243701328447</v>
+        <v>0.2109722031414571</v>
       </c>
       <c r="M6">
-        <v>2312</v>
+        <v>2279</v>
       </c>
       <c r="N6">
-        <v>0.059722929006693</v>
+        <v>0.07295671576332444</v>
       </c>
       <c r="O6">
-        <v>0.7585301837270341</v>
+        <v>0.4946820056435858</v>
       </c>
       <c r="P6">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="Q6">
-        <v>0.02007124387465418</v>
+        <v>0.02471372732307436</v>
       </c>
       <c r="R6">
-        <v>0.2549212598425197</v>
+        <v>0.1675710874755806</v>
       </c>
       <c r="S6">
-        <v>1535</v>
+        <v>1507</v>
       </c>
       <c r="T6">
-        <v>0.6639273356401384</v>
+        <v>0.6612549363756033</v>
       </c>
       <c r="U6">
-        <v>4216</v>
+        <v>5563</v>
       </c>
       <c r="V6">
-        <v>0.1089065176004402</v>
+        <v>0.1780860946868688</v>
       </c>
       <c r="W6">
-        <v>0.1311870534561419</v>
+        <v>0.1564984034241457</v>
       </c>
       <c r="X6">
-        <v>0.07852772385594535</v>
+        <v>0.06476114376800814</v>
       </c>
       <c r="Y6">
-        <v>0.05265932960019652</v>
+        <v>0.09173725965613753</v>
       </c>
       <c r="Z6">
-        <v>0.8013743631981514</v>
+        <v>0.6485986896912128</v>
       </c>
       <c r="AA6">
-        <v>0.1188297364866695</v>
+        <v>0.1264170847629477</v>
       </c>
       <c r="AB6">
-        <v>0.06852264318845418</v>
+        <v>0.05366693579767054</v>
       </c>
       <c r="AC6">
-        <v>0.05030709329821537</v>
+        <v>0.07275014896527721</v>
       </c>
       <c r="AD6">
-        <v>8422</v>
+        <v>9181</v>
       </c>
       <c r="AE6">
-        <v>185.701727567267</v>
+        <v>148.9681089029628</v>
       </c>
       <c r="AF6">
-        <v>8607.701727567268</v>
+        <v>9329.968108902964</v>
       </c>
       <c r="AG6">
-        <v>4391.701727567268</v>
+        <v>3766.968108902964</v>
       </c>
       <c r="AH6">
-        <v>0.1819048561767884</v>
+        <v>0.229985319438546</v>
       </c>
       <c r="AI6">
-        <v>0.2262463652058302</v>
+        <v>0.2231571007588729</v>
       </c>
       <c r="AJ6">
-        <v>0.1018866446009687</v>
+        <v>0.1076133073789917</v>
       </c>
       <c r="AK6">
-        <v>0.1298179263575517</v>
+        <v>0.1039279209644754</v>
       </c>
       <c r="AL6">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AM6">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AN6">
-        <v>1.893435251798561</v>
+        <v>2.124739643601018</v>
       </c>
       <c r="AO6">
-        <v>18.94759825327511</v>
+        <v>17.80252100840336</v>
       </c>
       <c r="AP6">
-        <v>0.9873430142912023</v>
+        <v>0.8717815572559509</v>
       </c>
       <c r="AQ6">
-        <v>18.94759825327511</v>
+        <v>17.80252100840336</v>
       </c>
     </row>
     <row r="7">
@@ -1252,124 +1252,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0259</v>
+        <v>0.0605</v>
       </c>
       <c r="E7">
-        <v>0.065</v>
-      </c>
-      <c r="F7">
-        <v>0.08070000000000001</v>
+        <v>0.0573</v>
       </c>
       <c r="G7">
-        <v>0.2169580537289315</v>
+        <v>0.2238462200792147</v>
       </c>
       <c r="H7">
-        <v>0.2169580537289315</v>
+        <v>0.2238462200792147</v>
       </c>
       <c r="I7">
-        <v>0.2246139982367481</v>
+        <v>0.2077732954755429</v>
       </c>
       <c r="J7">
-        <v>0.1827246504712915</v>
+        <v>0.1699185133289345</v>
       </c>
       <c r="K7">
-        <v>738.4</v>
+        <v>714.6</v>
       </c>
       <c r="L7">
-        <v>0.1657203133065512</v>
+        <v>0.1538229722748407</v>
       </c>
       <c r="M7">
-        <v>531.3</v>
+        <v>498.9</v>
       </c>
       <c r="N7">
-        <v>0.04664249532521574</v>
+        <v>0.05019771197440309</v>
       </c>
       <c r="O7">
-        <v>0.7195287107258937</v>
+        <v>0.6981528127623845</v>
       </c>
       <c r="P7">
-        <v>73.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="Q7">
-        <v>0.006443740178563591</v>
+        <v>0.00776761548291024</v>
       </c>
       <c r="R7">
-        <v>0.09940411700975083</v>
+        <v>0.1080324657150854</v>
       </c>
       <c r="S7">
-        <v>457.9</v>
+        <v>421.7</v>
       </c>
       <c r="T7">
-        <v>0.8618482966309053</v>
+        <v>0.8452595710563239</v>
       </c>
       <c r="U7">
-        <v>66.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="V7">
-        <v>0.005855551361174272</v>
+        <v>0.008059404147423706</v>
       </c>
       <c r="W7">
-        <v>0.1333116683818087</v>
+        <v>0.09772307692307693</v>
       </c>
       <c r="X7">
-        <v>0.07542301259851507</v>
+        <v>0.06144358276533707</v>
       </c>
       <c r="Y7">
-        <v>0.05788865578329359</v>
+        <v>0.03627949415773986</v>
       </c>
       <c r="Z7">
-        <v>0.6351822536166132</v>
+        <v>0.5518721384426343</v>
       </c>
       <c r="AA7">
-        <v>0.1160634552776629</v>
+        <v>0.09377329331183235</v>
       </c>
       <c r="AB7">
-        <v>0.06871866933292321</v>
+        <v>0.05357629588737715</v>
       </c>
       <c r="AC7">
-        <v>0.04734478594473968</v>
+        <v>0.04019699742445519</v>
       </c>
       <c r="AD7">
-        <v>1584.5</v>
+        <v>1947.3</v>
       </c>
       <c r="AE7">
-        <v>20.93704028260828</v>
+        <v>29.19189269408817</v>
       </c>
       <c r="AF7">
-        <v>1605.437040282608</v>
+        <v>1976.491892694088</v>
       </c>
       <c r="AG7">
-        <v>1538.737040282608</v>
+        <v>1896.391892694088</v>
       </c>
       <c r="AH7">
-        <v>0.1235299635048321</v>
+        <v>0.1658799883790367</v>
       </c>
       <c r="AI7">
-        <v>0.1800233656091983</v>
+        <v>0.1937472762035138</v>
       </c>
       <c r="AJ7">
-        <v>0.1190085255671628</v>
+        <v>0.1602346572285382</v>
       </c>
       <c r="AK7">
-        <v>0.1738442924169477</v>
+        <v>0.1873665845032068</v>
       </c>
       <c r="AL7">
-        <v>87.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="AM7">
-        <v>87.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="AN7">
-        <v>1.554193231976459</v>
+        <v>1.968222202007338</v>
       </c>
       <c r="AO7">
-        <v>11.44965675057208</v>
+        <v>11.25524475524476</v>
       </c>
       <c r="AP7">
-        <v>1.509305581444442</v>
+        <v>1.916767127256828</v>
       </c>
       <c r="AQ7">
-        <v>11.44965675057208</v>
+        <v>11.25524475524476</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1377,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unum Group (NYSE:UNM)</t>
+          <t>Principal Financial Group, Inc. (NasdaqGS:PFG)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1389,124 +1386,118 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.025</v>
+        <v>0.04480000000000001</v>
       </c>
       <c r="E8">
-        <v>0.0307</v>
+        <v>-0.005620000000000001</v>
       </c>
       <c r="F8">
-        <v>0.0736</v>
+        <v>0.0707</v>
       </c>
       <c r="G8">
-        <v>0.07568530447189133</v>
+        <v>0.1278038845032548</v>
       </c>
       <c r="H8">
-        <v>0.07568530447189133</v>
+        <v>0.1278038845032548</v>
       </c>
       <c r="I8">
-        <v>0.1279196897438209</v>
+        <v>0.09886329180925182</v>
       </c>
       <c r="J8">
-        <v>0.102499252311467</v>
+        <v>0.08403916666625445</v>
       </c>
       <c r="K8">
-        <v>1053.2</v>
+        <v>1224.1</v>
       </c>
       <c r="L8">
-        <v>0.08891440342420072</v>
+        <v>0.08147738920912152</v>
       </c>
       <c r="M8">
-        <v>673.3</v>
+        <v>928.7</v>
       </c>
       <c r="N8">
-        <v>0.1135374860881589</v>
+        <v>0.06813996316758748</v>
       </c>
       <c r="O8">
-        <v>0.6392897835169008</v>
+        <v>0.7586798464177764</v>
       </c>
       <c r="P8">
-        <v>225.7</v>
+        <v>613.2</v>
       </c>
       <c r="Q8">
-        <v>0.03805942463997841</v>
+        <v>0.04499130549624706</v>
       </c>
       <c r="R8">
-        <v>0.2142992783896696</v>
+        <v>0.5009394657299241</v>
       </c>
       <c r="S8">
-        <v>447.6</v>
+        <v>315.5</v>
       </c>
       <c r="T8">
-        <v>0.6647853854151196</v>
+        <v>0.3397221923118337</v>
       </c>
       <c r="U8">
-        <v>77</v>
+        <v>3556.7</v>
       </c>
       <c r="V8">
-        <v>0.01298438501230987</v>
+        <v>0.2609598438657891</v>
       </c>
       <c r="W8">
-        <v>0.1236411448428072</v>
+        <v>0.08268599451507004</v>
       </c>
       <c r="X8">
-        <v>0.09376943613362926</v>
+        <v>0.06612940706224497</v>
       </c>
       <c r="Y8">
-        <v>0.02987170870917791</v>
+        <v>0.01655658745282507</v>
       </c>
       <c r="Z8">
-        <v>1.068407019562595</v>
+        <v>1.068352396533901</v>
       </c>
       <c r="AA8">
-        <v>0.1095109206694888</v>
+        <v>0.08978344511060483</v>
       </c>
       <c r="AB8">
-        <v>0.06764671466607211</v>
+        <v>0.05413328107069128</v>
       </c>
       <c r="AC8">
-        <v>0.04186420600341668</v>
+        <v>0.03565016403991356</v>
       </c>
       <c r="AD8">
-        <v>3550.8</v>
+        <v>4422.8</v>
       </c>
       <c r="AE8">
-        <v>137.8924150773366</v>
+        <v>208.9883825808134</v>
       </c>
       <c r="AF8">
-        <v>3688.692415077337</v>
+        <v>4631.788382580814</v>
       </c>
       <c r="AG8">
-        <v>3611.692415077337</v>
+        <v>1075.088382580814</v>
       </c>
       <c r="AH8">
-        <v>0.3834841118812617</v>
+        <v>0.2536425149225531</v>
       </c>
       <c r="AI8">
-        <v>0.2769227806817573</v>
+        <v>0.224502020740953</v>
       </c>
       <c r="AJ8">
-        <v>0.3785090271370518</v>
+        <v>0.0731134376084891</v>
       </c>
       <c r="AK8">
-        <v>0.272718618745099</v>
+        <v>0.06296386548861374</v>
       </c>
       <c r="AL8">
-        <v>172.8</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>172.8</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>2.149524789636176</v>
-      </c>
-      <c r="AO8">
-        <v>8.752314814814815</v>
+        <v>2.512669014884672</v>
       </c>
       <c r="AP8">
-        <v>2.186386836417057</v>
-      </c>
-      <c r="AQ8">
-        <v>8.752314814814815</v>
+        <v>0.6107762655271072</v>
       </c>
     </row>
     <row r="9">
@@ -1517,7 +1508,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Brighthouse Financial, Inc. (NasdaqGS:BHF)</t>
+          <t>Unum Group (NYSE:UNM)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1525,119 +1516,125 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.0229</v>
+      </c>
+      <c r="E9">
+        <v>0.216</v>
+      </c>
       <c r="F9">
-        <v>0.0895</v>
+        <v>0.09</v>
       </c>
       <c r="G9">
-        <v>0.104559748427673</v>
+        <v>0.1423191760601181</v>
       </c>
       <c r="H9">
-        <v>0.104559748427673</v>
+        <v>0.1423191760601181</v>
       </c>
       <c r="I9">
-        <v>0.215998427672956</v>
+        <v>0.1182704376867887</v>
       </c>
       <c r="J9">
-        <v>0.1820660690779164</v>
+        <v>0.09271500243746122</v>
       </c>
       <c r="K9">
-        <v>1772</v>
+        <v>953.8</v>
       </c>
       <c r="L9">
-        <v>0.1741352201257862</v>
+        <v>0.07999530327428878</v>
       </c>
       <c r="M9">
-        <v>377</v>
+        <v>335.8</v>
       </c>
       <c r="N9">
-        <v>0.08989889355207935</v>
+        <v>0.07187499999999999</v>
       </c>
       <c r="O9">
-        <v>0.2127539503386005</v>
+        <v>0.3520654225204445</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>232.7</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.04980736301369863</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0.2439714824910883</v>
       </c>
       <c r="S9">
-        <v>377</v>
+        <v>103.1</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0.3070279928528886</v>
       </c>
       <c r="U9">
-        <v>4289</v>
+        <v>103.8</v>
       </c>
       <c r="V9">
-        <v>1.022748950782144</v>
+        <v>0.02221746575342466</v>
       </c>
       <c r="W9">
-        <v>0.1375349270412915</v>
+        <v>0.099028198845467</v>
       </c>
       <c r="X9">
-        <v>0.1616961796332525</v>
+        <v>0.0797399943727175</v>
       </c>
       <c r="Y9">
-        <v>-0.02416125259196095</v>
+        <v>0.0192882044727495</v>
       </c>
       <c r="Z9">
-        <v>0.5140951803576842</v>
+        <v>0.9339377536086716</v>
       </c>
       <c r="AA9">
-        <v>0.09359928861962599</v>
+        <v>0.08659004110226505</v>
       </c>
       <c r="AB9">
-        <v>0.06504354444561281</v>
+        <v>0.0536510967434032</v>
       </c>
       <c r="AC9">
-        <v>0.02855574417401319</v>
+        <v>0.03293894435886185</v>
       </c>
       <c r="AD9">
-        <v>10078</v>
+        <v>3378.6</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>122.1895868644041</v>
       </c>
       <c r="AF9">
-        <v>10078</v>
+        <v>3500.789586864404</v>
       </c>
       <c r="AG9">
-        <v>5789</v>
+        <v>3396.989586864404</v>
       </c>
       <c r="AH9">
-        <v>0.7061576837915861</v>
+        <v>0.4283469615430938</v>
       </c>
       <c r="AI9">
-        <v>0.3620231338458222</v>
+        <v>0.2432288000860752</v>
       </c>
       <c r="AJ9">
-        <v>0.5799090417326147</v>
+        <v>0.420993180161541</v>
       </c>
       <c r="AK9">
-        <v>0.2458278483162767</v>
+        <v>0.2377314378967403</v>
       </c>
       <c r="AL9">
-        <v>91</v>
+        <v>189.2</v>
       </c>
       <c r="AM9">
-        <v>91</v>
+        <v>189.2</v>
       </c>
       <c r="AN9">
-        <v>4.546192710212919</v>
+        <v>2.182981197906571</v>
       </c>
       <c r="AO9">
-        <v>24.15384615384615</v>
+        <v>7.44186046511628</v>
       </c>
       <c r="AP9">
-        <v>2.611421869361241</v>
+        <v>2.194863078674423</v>
       </c>
       <c r="AQ9">
-        <v>24.15384615384615</v>
+        <v>7.44186046511628</v>
       </c>
     </row>
     <row r="10">
@@ -1648,7 +1645,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Prudential Financial, Inc. (NYSE:PRU)</t>
+          <t>CNO Financial Group, Inc. (NYSE:CNO)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1657,124 +1654,121 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0461</v>
+        <v>-0.00148</v>
       </c>
       <c r="E10">
-        <v>0.104</v>
-      </c>
-      <c r="F10">
-        <v>0.0761</v>
+        <v>0.166</v>
       </c>
       <c r="G10">
-        <v>0.1042780748663102</v>
+        <v>0.1839848973491701</v>
       </c>
       <c r="H10">
-        <v>0.1042780748663102</v>
+        <v>0.1839848973491701</v>
       </c>
       <c r="I10">
-        <v>0.1018605555689799</v>
+        <v>0.1149718941842197</v>
       </c>
       <c r="J10">
-        <v>0.08220873368933204</v>
+        <v>0.1149718941842197</v>
       </c>
       <c r="K10">
-        <v>3900</v>
+        <v>468</v>
       </c>
       <c r="L10">
-        <v>0.06062678771297102</v>
+        <v>0.122709037992606</v>
       </c>
       <c r="M10">
-        <v>3939</v>
+        <v>308.4</v>
       </c>
       <c r="N10">
-        <v>0.1054963066918779</v>
+        <v>0.09981874676333506</v>
       </c>
       <c r="O10">
-        <v>1.01</v>
+        <v>0.658974358974359</v>
       </c>
       <c r="P10">
-        <v>1611</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.04314662352897064</v>
+        <v>0.0216532884515795</v>
       </c>
       <c r="R10">
-        <v>0.4130769230769231</v>
+        <v>0.142948717948718</v>
       </c>
       <c r="S10">
-        <v>2328</v>
+        <v>241.5</v>
       </c>
       <c r="T10">
-        <v>0.591012947448591</v>
+        <v>0.7830739299610895</v>
       </c>
       <c r="U10">
-        <v>18289</v>
+        <v>735.6</v>
       </c>
       <c r="V10">
-        <v>0.489825324470108</v>
+        <v>0.2380890730191611</v>
       </c>
       <c r="W10">
-        <v>0.08346709470304976</v>
+        <v>0.1027825972371686</v>
       </c>
       <c r="X10">
-        <v>0.107869359425886</v>
+        <v>0.09632379829527532</v>
       </c>
       <c r="Y10">
-        <v>-0.02440226472283621</v>
+        <v>0.006458798941893329</v>
       </c>
       <c r="Z10">
-        <v>0.9261481384991597</v>
+        <v>0.4984810265446909</v>
       </c>
       <c r="AA10">
-        <v>0.07613746567474802</v>
+        <v>0.05731130783673742</v>
       </c>
       <c r="AB10">
-        <v>0.06468939179092413</v>
+        <v>0.05330096459106046</v>
       </c>
       <c r="AC10">
-        <v>0.01144807388382389</v>
+        <v>0.004010343245676964</v>
       </c>
       <c r="AD10">
-        <v>36407</v>
+        <v>3785</v>
       </c>
       <c r="AE10">
-        <v>622.5709067932983</v>
+        <v>71.54346385402179</v>
       </c>
       <c r="AF10">
-        <v>37029.5709067933</v>
+        <v>3856.543463854022</v>
       </c>
       <c r="AG10">
-        <v>18740.5709067933</v>
+        <v>3120.943463854022</v>
       </c>
       <c r="AH10">
-        <v>0.4979276590697752</v>
+        <v>0.5552064226606463</v>
       </c>
       <c r="AI10">
-        <v>0.3583151867298129</v>
+        <v>0.4313593033103924</v>
       </c>
       <c r="AJ10">
-        <v>0.3341853660111064</v>
+        <v>0.5025234074953701</v>
       </c>
       <c r="AK10">
-        <v>0.2203358468215668</v>
+        <v>0.3803781848615593</v>
       </c>
       <c r="AL10">
-        <v>1423</v>
+        <v>120.7</v>
       </c>
       <c r="AM10">
-        <v>1423</v>
+        <v>120.7</v>
       </c>
       <c r="AN10">
-        <v>5.095451364590623</v>
+        <v>5.007938608097381</v>
       </c>
       <c r="AO10">
-        <v>4.57413914265636</v>
+        <v>3.553438276719138</v>
       </c>
       <c r="AP10">
-        <v>2.622893059033352</v>
+        <v>4.129324508936256</v>
       </c>
       <c r="AQ10">
-        <v>4.57413914265636</v>
+        <v>3.553438276719138</v>
       </c>
     </row>
     <row r="11">
@@ -1785,7 +1779,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FBL Financial Group, Inc. (NYSE:FFG)</t>
+          <t>Lincoln National Corporation (NYSE:LNC)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1794,121 +1788,124 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0138</v>
+        <v>0.0461</v>
       </c>
       <c r="E11">
-        <v>-0.0208</v>
+        <v>-0.0837</v>
+      </c>
+      <c r="F11">
+        <v>0.14</v>
       </c>
       <c r="G11">
-        <v>0.1876182752095161</v>
+        <v>0.08567543064369901</v>
       </c>
       <c r="H11">
-        <v>0.1876182752095161</v>
+        <v>0.08567543064369901</v>
       </c>
       <c r="I11">
-        <v>0.1499744408254255</v>
+        <v>0.07352586599212151</v>
       </c>
       <c r="J11">
-        <v>0.1353360515735884</v>
+        <v>0.07109003975679969</v>
       </c>
       <c r="K11">
-        <v>97.90000000000001</v>
+        <v>788</v>
       </c>
       <c r="L11">
-        <v>0.1323330629899973</v>
+        <v>0.04465095194922938</v>
       </c>
       <c r="M11">
-        <v>58.4</v>
+        <v>634</v>
       </c>
       <c r="N11">
-        <v>0.04044321329639889</v>
+        <v>0.06520487082441993</v>
       </c>
       <c r="O11">
-        <v>0.5965270684371807</v>
+        <v>0.8045685279187818</v>
       </c>
       <c r="P11">
-        <v>46.9</v>
+        <v>309</v>
       </c>
       <c r="Q11">
-        <v>0.0324792243767313</v>
+        <v>0.03177966101694915</v>
       </c>
       <c r="R11">
-        <v>0.4790602655771194</v>
+        <v>0.3921319796954315</v>
       </c>
       <c r="S11">
-        <v>11.5</v>
+        <v>325</v>
       </c>
       <c r="T11">
-        <v>0.1969178082191781</v>
+        <v>0.5126182965299685</v>
       </c>
       <c r="U11">
-        <v>13</v>
+        <v>2595</v>
       </c>
       <c r="V11">
-        <v>0.009002770083102494</v>
+        <v>0.2668874444627283</v>
       </c>
       <c r="W11">
-        <v>0.08222054253800286</v>
+        <v>0.03940197009850493</v>
       </c>
       <c r="X11">
-        <v>0.07357765771399823</v>
+        <v>0.08268460099001944</v>
       </c>
       <c r="Y11">
-        <v>0.008642884824004632</v>
+        <v>-0.04328263089151451</v>
       </c>
       <c r="Z11">
-        <v>0.5768220712603457</v>
+        <v>0.7596066399530336</v>
       </c>
       <c r="AA11">
-        <v>0.07806482158487424</v>
+        <v>0.05400046623379018</v>
       </c>
       <c r="AB11">
-        <v>0.06913643525650925</v>
+        <v>0.05357504756337435</v>
       </c>
       <c r="AC11">
-        <v>0.008928386328364984</v>
+        <v>0.0004254186704158308</v>
       </c>
       <c r="AD11">
-        <v>127.4</v>
+        <v>7895</v>
       </c>
       <c r="AE11">
-        <v>6.244543386750971</v>
+        <v>252.0775848551986</v>
       </c>
       <c r="AF11">
-        <v>133.644543386751</v>
+        <v>8147.077584855198</v>
       </c>
       <c r="AG11">
-        <v>120.644543386751</v>
+        <v>5552.077584855198</v>
       </c>
       <c r="AH11">
-        <v>0.08471144146314126</v>
+        <v>0.4559010091572237</v>
       </c>
       <c r="AI11">
-        <v>0.08109771892693257</v>
+        <v>0.2743486092254201</v>
       </c>
       <c r="AJ11">
-        <v>0.07710667825269109</v>
+        <v>0.3634681958486864</v>
       </c>
       <c r="AK11">
-        <v>0.07379121443277734</v>
+        <v>0.2048655654916779</v>
       </c>
       <c r="AL11">
-        <v>4.85</v>
+        <v>290</v>
       </c>
       <c r="AM11">
-        <v>4.85</v>
+        <v>290</v>
       </c>
       <c r="AN11">
-        <v>0.8403693931398417</v>
+        <v>5.532585844428872</v>
       </c>
       <c r="AO11">
-        <v>22.68041237113402</v>
+        <v>4.479310344827586</v>
       </c>
       <c r="AP11">
-        <v>0.7958083336856925</v>
+        <v>3.890734116927259</v>
       </c>
       <c r="AQ11">
-        <v>22.68041237113402</v>
+        <v>4.479310344827586</v>
       </c>
     </row>
     <row r="12">
@@ -1919,7 +1916,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Independence Holding Company (NYSE:IHC)</t>
+          <t>MetLife, Inc. (NYSE:MET)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1928,115 +1925,124 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.07530000000000001</v>
+        <v>-0.0182</v>
       </c>
       <c r="E12">
-        <v>0.136</v>
+        <v>-0.00522</v>
+      </c>
+      <c r="F12">
+        <v>0.073</v>
       </c>
       <c r="G12">
-        <v>0.1085729642569202</v>
+        <v>0.1254289505391432</v>
       </c>
       <c r="H12">
-        <v>0.1085729642569202</v>
+        <v>0.1254289505391432</v>
       </c>
       <c r="I12">
-        <v>0.095066710188946</v>
+        <v>0.1161233025251337</v>
       </c>
       <c r="J12">
-        <v>0.07453781190176781</v>
+        <v>0.1009647744821561</v>
       </c>
       <c r="K12">
-        <v>26.5</v>
+        <v>5842</v>
       </c>
       <c r="L12">
-        <v>0.07121741467347487</v>
+        <v>0.08909969954397791</v>
       </c>
       <c r="M12">
-        <v>12.65</v>
+        <v>2478</v>
       </c>
       <c r="N12">
-        <v>0.02021412591882391</v>
+        <v>0.05864727851067154</v>
       </c>
       <c r="O12">
-        <v>0.4773584905660377</v>
+        <v>0.4241698048613489</v>
       </c>
       <c r="P12">
-        <v>5.23</v>
+        <v>1648</v>
       </c>
       <c r="Q12">
-        <v>0.008357302652604667</v>
+        <v>0.03900351694333603</v>
       </c>
       <c r="R12">
-        <v>0.1973584905660377</v>
+        <v>0.2820951728859979</v>
       </c>
       <c r="S12">
-        <v>7.42</v>
+        <v>830</v>
       </c>
       <c r="T12">
-        <v>0.5865612648221343</v>
+        <v>0.3349475383373688</v>
       </c>
       <c r="U12">
-        <v>17.8</v>
+        <v>24405</v>
       </c>
       <c r="V12">
-        <v>0.02844359220198147</v>
+        <v>0.5775975916274975</v>
       </c>
       <c r="W12">
-        <v>0.05983291939489727</v>
+        <v>0.08544933302129651</v>
       </c>
       <c r="X12">
-        <v>0.07096514635163631</v>
+        <v>0.1445124305822795</v>
       </c>
       <c r="Y12">
-        <v>-0.01113222695673904</v>
+        <v>-0.05906309756098302</v>
       </c>
       <c r="Z12">
-        <v>0.9955096769698117</v>
+        <v>0.4716992089023298</v>
       </c>
       <c r="AA12">
-        <v>0.07420311304836547</v>
+        <v>0.04762500425023516</v>
       </c>
       <c r="AB12">
-        <v>0.06979538833646289</v>
+        <v>0.04930456051705882</v>
       </c>
       <c r="AC12">
-        <v>0.00440772471190258</v>
+        <v>-0.001679556266823659</v>
       </c>
       <c r="AD12">
-        <v>7.87</v>
+        <v>112251</v>
       </c>
       <c r="AE12">
-        <v>7.178385693465981</v>
+        <v>1745.717116672796</v>
       </c>
       <c r="AF12">
-        <v>15.04838569346598</v>
+        <v>113996.7171166728</v>
       </c>
       <c r="AG12">
-        <v>-2.75161430653402</v>
+        <v>89591.71711667279</v>
       </c>
       <c r="AH12">
-        <v>0.02348197487800805</v>
+        <v>0.7295821781515398</v>
       </c>
       <c r="AI12">
-        <v>0.03063294685889517</v>
+        <v>0.6077694733828285</v>
       </c>
       <c r="AJ12">
-        <v>-0.004416373382416223</v>
+        <v>0.6795265740380038</v>
       </c>
       <c r="AK12">
-        <v>-0.005811856983108506</v>
+        <v>0.5491010256629827</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="AN12">
-        <v>0.1962104213413114</v>
+        <v>13.44806517311609</v>
+      </c>
+      <c r="AO12">
+        <v>8.465270121278941</v>
       </c>
       <c r="AP12">
-        <v>-0.06860170298015507</v>
+        <v>10.73340327263362</v>
+      </c>
+      <c r="AQ12">
+        <v>8.465270121278941</v>
       </c>
     </row>
     <row r="13">
@@ -2047,7 +2053,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lincoln National Corporation (NYSE:LNC)</t>
+          <t>FBL Financial Group, Inc. (NYSE:FFG)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2056,124 +2062,124 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0607</v>
+        <v>0.00335</v>
       </c>
       <c r="E13">
-        <v>-0.109</v>
+        <v>-0.0644</v>
       </c>
       <c r="F13">
-        <v>0.09470000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="G13">
-        <v>0.1345448291676221</v>
+        <v>0.2304096783062964</v>
       </c>
       <c r="H13">
-        <v>0.1345448291676221</v>
+        <v>0.2304096783062964</v>
       </c>
       <c r="I13">
-        <v>0.07922741842792186</v>
+        <v>0.1310984467469749</v>
       </c>
       <c r="J13">
-        <v>0.07467512477239485</v>
+        <v>0.1133708487135781</v>
       </c>
       <c r="K13">
-        <v>853</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="L13">
-        <v>0.04889933501490484</v>
+        <v>0.1091558977178994</v>
       </c>
       <c r="M13">
-        <v>1374</v>
+        <v>58.8</v>
       </c>
       <c r="N13">
-        <v>0.1180808002681311</v>
+        <v>0.0459016393442623</v>
       </c>
       <c r="O13">
-        <v>1.610785463071512</v>
+        <v>0.7405541561712846</v>
       </c>
       <c r="P13">
-        <v>299</v>
+        <v>48.7</v>
       </c>
       <c r="Q13">
-        <v>0.02569589467261368</v>
+        <v>0.03801717408274786</v>
       </c>
       <c r="R13">
-        <v>0.3505275498241501</v>
+        <v>0.6133501259445844</v>
       </c>
       <c r="S13">
-        <v>1075</v>
+        <v>10.1</v>
       </c>
       <c r="T13">
-        <v>0.7823871906841339</v>
+        <v>0.1717687074829932</v>
       </c>
       <c r="U13">
-        <v>2939</v>
+        <v>6.13</v>
       </c>
       <c r="V13">
-        <v>0.2525760349257913</v>
+        <v>0.004785323965651835</v>
       </c>
       <c r="W13">
-        <v>0.05660252156602522</v>
+        <v>0.05254102699841186</v>
       </c>
       <c r="X13">
-        <v>0.09558156727242147</v>
+        <v>0.05775753829762678</v>
       </c>
       <c r="Y13">
-        <v>-0.03897904570639625</v>
+        <v>-0.005216511299214924</v>
       </c>
       <c r="Z13">
-        <v>0.9538085999248719</v>
+        <v>0.4462864311380288</v>
       </c>
       <c r="AA13">
-        <v>0.07122577620837305</v>
+        <v>0.05059587146747213</v>
       </c>
       <c r="AB13">
-        <v>0.06753683508299273</v>
+        <v>0.05422057316873919</v>
       </c>
       <c r="AC13">
-        <v>0.003688941125380318</v>
+        <v>-0.003624701701267059</v>
       </c>
       <c r="AD13">
-        <v>7546</v>
+        <v>97</v>
       </c>
       <c r="AE13">
-        <v>244.7845647166557</v>
+        <v>15.6949491812524</v>
       </c>
       <c r="AF13">
-        <v>7790.784564716656</v>
+        <v>112.6949491812524</v>
       </c>
       <c r="AG13">
-        <v>4851.784564716656</v>
+        <v>106.5649491812524</v>
       </c>
       <c r="AH13">
-        <v>0.4010310834330263</v>
+        <v>0.08086055649943825</v>
       </c>
       <c r="AI13">
-        <v>0.2803470659001883</v>
+        <v>0.06510414674205506</v>
       </c>
       <c r="AJ13">
-        <v>0.2942636179719053</v>
+        <v>0.07679997195384057</v>
       </c>
       <c r="AK13">
-        <v>0.1952366756100433</v>
+        <v>0.06178161903738374</v>
       </c>
       <c r="AL13">
-        <v>323</v>
+        <v>4.85</v>
       </c>
       <c r="AM13">
-        <v>323</v>
+        <v>4.85</v>
       </c>
       <c r="AN13">
-        <v>5.027315123251165</v>
+        <v>0.8923643054277829</v>
       </c>
       <c r="AO13">
-        <v>4.294117647058823</v>
+        <v>19.75257731958763</v>
       </c>
       <c r="AP13">
-        <v>3.232368131057066</v>
+        <v>0.9803583181347967</v>
       </c>
       <c r="AQ13">
-        <v>4.294117647058823</v>
+        <v>19.75257731958763</v>
       </c>
     </row>
     <row r="14">
@@ -2184,7 +2190,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MetLife, Inc. (NYSE:MET)</t>
+          <t>National Western Life Group, Inc. (NasdaqGS:NWLI)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2193,124 +2199,115 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.0128</v>
+        <v>0.0347</v>
       </c>
       <c r="E14">
-        <v>0.053</v>
-      </c>
-      <c r="F14">
-        <v>0.0756</v>
+        <v>0.00083</v>
       </c>
       <c r="G14">
-        <v>0.1147504881593822</v>
+        <v>0.2553282182438193</v>
       </c>
       <c r="H14">
-        <v>0.1147504881593822</v>
+        <v>0.2553282182438193</v>
       </c>
       <c r="I14">
-        <v>0.150824373535963</v>
+        <v>0.1643295398744552</v>
       </c>
       <c r="J14">
-        <v>0.1196964796104498</v>
+        <v>0.1318247957234641</v>
       </c>
       <c r="K14">
-        <v>7373</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="L14">
-        <v>0.1082465902250672</v>
+        <v>0.1348394430235863</v>
       </c>
       <c r="M14">
-        <v>4887</v>
+        <v>1.27</v>
       </c>
       <c r="N14">
-        <v>0.1048143389962102</v>
+        <v>0.001691979749533706</v>
       </c>
       <c r="O14">
-        <v>0.6628238166282382</v>
+        <v>0.01338250790305585</v>
       </c>
       <c r="P14">
-        <v>1652</v>
+        <v>1.27</v>
       </c>
       <c r="Q14">
-        <v>0.03543140741185579</v>
+        <v>0.001691979749533706</v>
       </c>
       <c r="R14">
-        <v>0.2240607622406076</v>
+        <v>0.01338250790305585</v>
       </c>
       <c r="S14">
-        <v>3235</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.6619603028442808</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>19452</v>
+        <v>507</v>
       </c>
       <c r="V14">
-        <v>0.4171983879996483</v>
+        <v>0.6754596322941646</v>
       </c>
       <c r="W14">
-        <v>0.142818401937046</v>
+        <v>0.04536979490366688</v>
       </c>
       <c r="X14">
-        <v>0.1527400772592388</v>
+        <v>0.05488268197963969</v>
       </c>
       <c r="Y14">
-        <v>-0.009921675322192819</v>
+        <v>-0.009512887075972809</v>
       </c>
       <c r="Z14">
-        <v>0.5354648377205923</v>
+        <v>0.3663117387842958</v>
       </c>
       <c r="AA14">
-        <v>0.06409325603033568</v>
+        <v>0.04828897013634673</v>
       </c>
       <c r="AB14">
-        <v>0.06268281604995993</v>
+        <v>0.05482924303795603</v>
       </c>
       <c r="AC14">
-        <v>0.001410439980375752</v>
+        <v>-0.006540272901609294</v>
       </c>
       <c r="AD14">
-        <v>99230</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>1869.497226724782</v>
+        <v>1.114349181792138</v>
       </c>
       <c r="AF14">
-        <v>101099.4972267248</v>
+        <v>1.114349181792138</v>
       </c>
       <c r="AG14">
-        <v>81647.49722672478</v>
+        <v>-505.8856508182079</v>
       </c>
       <c r="AH14">
-        <v>0.684377295651721</v>
+        <v>0.001482410416942364</v>
       </c>
       <c r="AI14">
-        <v>0.5956893260235934</v>
+        <v>0.0005027938307593994</v>
       </c>
       <c r="AJ14">
-        <v>0.6365145143160101</v>
+        <v>-2.067249642326442</v>
       </c>
       <c r="AK14">
-        <v>0.543351304073679</v>
+        <v>-0.2959582308896917</v>
       </c>
       <c r="AL14">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>9.141999023428504</v>
-      </c>
-      <c r="AO14">
-        <v>10.73056994818653</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>7.522133829608983</v>
-      </c>
-      <c r="AQ14">
-        <v>10.73056994818653</v>
+        <v>-3.965304761151671</v>
       </c>
     </row>
     <row r="15">
@@ -2321,7 +2318,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>National Western Life Group, Inc. (NasdaqGS:NWLI)</t>
+          <t>Kansas City Life Insurance Company (OTCPK:KCLI)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2330,46 +2327,46 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.044</v>
+        <v>0.0289</v>
       </c>
       <c r="E15">
-        <v>0.0189</v>
+        <v>-0.00693</v>
       </c>
       <c r="G15">
-        <v>0.245358514724712</v>
+        <v>0.0723444976076555</v>
       </c>
       <c r="H15">
-        <v>0.245358514724712</v>
+        <v>0.0723444976076555</v>
       </c>
       <c r="I15">
-        <v>0.2282191461078688</v>
+        <v>0.07464114832535886</v>
       </c>
       <c r="J15">
-        <v>0.1878019573590357</v>
+        <v>0.06174162679425838</v>
       </c>
       <c r="K15">
-        <v>115.7</v>
+        <v>32.2</v>
       </c>
       <c r="L15">
-        <v>0.185179257362356</v>
+        <v>0.06162679425837321</v>
       </c>
       <c r="M15">
-        <v>1.27</v>
+        <v>10.5</v>
       </c>
       <c r="N15">
-        <v>0.00121624209921471</v>
+        <v>0.02853260869565217</v>
       </c>
       <c r="O15">
-        <v>0.01097666378565255</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="P15">
-        <v>1.27</v>
+        <v>10.5</v>
       </c>
       <c r="Q15">
-        <v>0.00121624209921471</v>
+        <v>0.02853260869565217</v>
       </c>
       <c r="R15">
-        <v>0.01097666378565255</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2378,55 +2375,55 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>171.5</v>
+        <v>5.08</v>
       </c>
       <c r="V15">
-        <v>0.164240566941199</v>
+        <v>0.01380434782608696</v>
       </c>
       <c r="W15">
-        <v>0.0614445034519384</v>
+        <v>0.04116068004601816</v>
       </c>
       <c r="X15">
-        <v>0.07009698228787774</v>
+        <v>0.05483333449117023</v>
       </c>
       <c r="Y15">
-        <v>-0.008652478835939337</v>
+        <v>-0.01367265444515207</v>
       </c>
       <c r="Z15">
-        <v>0.361377828438477</v>
+        <v>0.6776913099870299</v>
       </c>
       <c r="AA15">
-        <v>0.06786746352690377</v>
+        <v>0.04184176394293126</v>
       </c>
       <c r="AB15">
-        <v>0.07003432554286954</v>
+        <v>0.05483333449117023</v>
       </c>
       <c r="AC15">
-        <v>-0.002166862015965762</v>
+        <v>-0.01299157054823897</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>1.338387559018096</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1.338387559018096</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>-170.1616124409819</v>
+        <v>-5.08</v>
       </c>
       <c r="AH15">
-        <v>0.001280094136134765</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>0.0006394472107981618</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>-0.1946843695460596</v>
+        <v>-0.01399757522318968</v>
       </c>
       <c r="AK15">
-        <v>-0.08855488578458368</v>
+        <v>-0.005730917623699826</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2438,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>-1.10452237416173</v>
+        <v>-0.1064989517819706</v>
       </c>
     </row>
     <row r="16">
@@ -2449,7 +2446,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>American Equity Investment Life Holding Company (NYSE:AEL)</t>
+          <t>Genworth Financial, Inc. (NYSE:GNW)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2458,121 +2455,115 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.05</v>
-      </c>
-      <c r="E16">
-        <v>-0.114</v>
+        <v>-0.0044</v>
       </c>
       <c r="G16">
-        <v>0.3204480908804039</v>
+        <v>0.1176331080279853</v>
       </c>
       <c r="H16">
-        <v>0.3204480908804039</v>
+        <v>0.1176331080279853</v>
       </c>
       <c r="I16">
-        <v>0.07582281402538273</v>
+        <v>0.1110801535321064</v>
       </c>
       <c r="J16">
-        <v>0.0599075302893618</v>
+        <v>0.07890939868401002</v>
       </c>
       <c r="K16">
-        <v>79.8</v>
+        <v>-106</v>
       </c>
       <c r="L16">
-        <v>0.04196907541811296</v>
+        <v>-0.01256966678524843</v>
       </c>
       <c r="M16">
-        <v>25.3</v>
+        <v>-0</v>
       </c>
       <c r="N16">
-        <v>0.009353049907578558</v>
+        <v>-0</v>
       </c>
       <c r="O16">
-        <v>0.3170426065162907</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>25.3</v>
+        <v>-0</v>
       </c>
       <c r="Q16">
-        <v>0.009353049907578558</v>
+        <v>-0</v>
       </c>
       <c r="R16">
-        <v>0.3170426065162907</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
       <c r="U16">
-        <v>1138.7</v>
+        <v>2780</v>
       </c>
       <c r="V16">
-        <v>0.4209611829944547</v>
+        <v>1.45465962011407</v>
       </c>
       <c r="W16">
-        <v>0.03205720483670108</v>
+        <v>-0.007367762563425314</v>
       </c>
       <c r="X16">
-        <v>0.08132259952924392</v>
+        <v>0.1182353134165913</v>
       </c>
       <c r="Y16">
-        <v>-0.04926539469254285</v>
+        <v>-0.1256030759800166</v>
       </c>
       <c r="Z16">
-        <v>0.8544072337329082</v>
+        <v>0.5005845398530947</v>
       </c>
       <c r="AA16">
-        <v>0.05118542723430403</v>
+        <v>0.03950082503031955</v>
       </c>
       <c r="AB16">
-        <v>0.06861923388596108</v>
+        <v>0.05302262356398774</v>
       </c>
       <c r="AC16">
-        <v>-0.01743380665165705</v>
+        <v>-0.01352179853366819</v>
       </c>
       <c r="AD16">
-        <v>788.1</v>
+        <v>3574</v>
       </c>
       <c r="AE16">
-        <v>11.60250706068637</v>
+        <v>71.30532631873294</v>
       </c>
       <c r="AF16">
-        <v>799.7025070606863</v>
+        <v>3645.305326318733</v>
       </c>
       <c r="AG16">
-        <v>-338.9974929393137</v>
+        <v>865.305326318733</v>
       </c>
       <c r="AH16">
-        <v>0.2281798541957784</v>
+        <v>0.6560546094526631</v>
       </c>
       <c r="AI16">
-        <v>0.162329916387166</v>
+        <v>0.1931051738214166</v>
       </c>
       <c r="AJ16">
-        <v>-0.1432785856852089</v>
+        <v>0.3116639051640385</v>
       </c>
       <c r="AK16">
-        <v>-0.08949950327603232</v>
+        <v>0.05375466941687304</v>
       </c>
       <c r="AL16">
-        <v>43.5</v>
+        <v>205</v>
       </c>
       <c r="AM16">
-        <v>43.5</v>
+        <v>205</v>
       </c>
       <c r="AN16">
-        <v>5.247353352420268</v>
+        <v>3.626585489599188</v>
       </c>
       <c r="AO16">
-        <v>3.32183908045977</v>
+        <v>4.595121951219512</v>
       </c>
       <c r="AP16">
-        <v>-2.257124262196642</v>
+        <v>0.8780368608003379</v>
       </c>
       <c r="AQ16">
-        <v>3.32183908045977</v>
+        <v>4.595121951219512</v>
       </c>
     </row>
     <row r="17">
@@ -2583,7 +2574,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CNO Financial Group, Inc. (NYSE:CNO)</t>
+          <t>Independence Holding Company (NYSE:IHC)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2592,121 +2583,115 @@
         </is>
       </c>
       <c r="D17">
-        <v>-0.0284</v>
+        <v>-0.0481</v>
       </c>
       <c r="E17">
-        <v>0.168</v>
+        <v>-0.325</v>
       </c>
       <c r="G17">
-        <v>0.04859060402684564</v>
+        <v>0.07413750917543431</v>
       </c>
       <c r="H17">
-        <v>0.04859060402684564</v>
+        <v>0.07413750917543431</v>
       </c>
       <c r="I17">
-        <v>0.1009404644773519</v>
+        <v>0.0255847157426842</v>
       </c>
       <c r="J17">
-        <v>0.07905930444842127</v>
+        <v>0.0127923578713421</v>
       </c>
       <c r="K17">
-        <v>159.7</v>
+        <v>4.07</v>
       </c>
       <c r="L17">
-        <v>0.04287248322147651</v>
+        <v>0.009958404697822365</v>
       </c>
       <c r="M17">
-        <v>288.7</v>
+        <v>13.32</v>
       </c>
       <c r="N17">
-        <v>0.1051270846988566</v>
+        <v>0.02219260246584472</v>
       </c>
       <c r="O17">
-        <v>1.807764558547276</v>
+        <v>3.272727272727272</v>
       </c>
       <c r="P17">
-        <v>67</v>
+        <v>6.22</v>
       </c>
       <c r="Q17">
-        <v>0.02439734906416139</v>
+        <v>0.01036321226257914</v>
       </c>
       <c r="R17">
-        <v>0.419536631183469</v>
+        <v>1.528255528255528</v>
       </c>
       <c r="S17">
-        <v>221.7</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="T17">
-        <v>0.767925181849671</v>
+        <v>0.5330330330330331</v>
       </c>
       <c r="U17">
-        <v>760.3</v>
+        <v>21.7</v>
       </c>
       <c r="V17">
-        <v>0.2768552909474911</v>
+        <v>0.03615461512829057</v>
       </c>
       <c r="W17">
-        <v>0.04411724080775711</v>
+        <v>0.00858830976999367</v>
       </c>
       <c r="X17">
-        <v>0.1246440413108182</v>
+        <v>0.05527458545505592</v>
       </c>
       <c r="Y17">
-        <v>-0.08052680050306112</v>
+        <v>-0.04668627568506226</v>
       </c>
       <c r="Z17">
-        <v>0.5223243642385588</v>
+        <v>1.011965223802994</v>
       </c>
       <c r="AA17">
-        <v>0.04129460093316429</v>
+        <v>0.0129454212962407</v>
       </c>
       <c r="AB17">
-        <v>0.06371196349961641</v>
+        <v>0.05473405474504566</v>
       </c>
       <c r="AC17">
-        <v>-0.02241736256645212</v>
+        <v>-0.04178863344880496</v>
       </c>
       <c r="AD17">
-        <v>3860.5</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>70.98384910932114</v>
+        <v>7.967633379824846</v>
       </c>
       <c r="AF17">
-        <v>3931.483849109321</v>
+        <v>7.967633379824846</v>
       </c>
       <c r="AG17">
-        <v>3171.183849109321</v>
+        <v>-13.73236662017515</v>
       </c>
       <c r="AH17">
-        <v>0.5887496230648458</v>
+        <v>0.01310104803760371</v>
       </c>
       <c r="AI17">
-        <v>0.4633569833982304</v>
+        <v>0.01668028734425315</v>
       </c>
       <c r="AJ17">
-        <v>0.5359097753286099</v>
+        <v>-0.02341538703685188</v>
       </c>
       <c r="AK17">
-        <v>0.410536666404575</v>
+        <v>-0.03011697676518188</v>
       </c>
       <c r="AL17">
-        <v>156.8</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>156.8</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>5.939230769230769</v>
-      </c>
-      <c r="AO17">
-        <v>2.346938775510204</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>4.87874438324511</v>
-      </c>
-      <c r="AQ17">
-        <v>2.346938775510204</v>
+        <v>-0.8487247602086003</v>
       </c>
     </row>
     <row r="18">
@@ -2717,7 +2702,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Genworth Financial, Inc. (NYSE:GNW)</t>
+          <t>Midwest Holding Inc. (NasdaqCM:MDWT)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2726,34 +2711,34 @@
         </is>
       </c>
       <c r="D18">
-        <v>-0.00775</v>
+        <v>0.197</v>
       </c>
       <c r="G18">
-        <v>0.09274381707886141</v>
+        <v>-0.395575221238938</v>
       </c>
       <c r="H18">
-        <v>0.09274381707886141</v>
+        <v>-0.395575221238938</v>
       </c>
       <c r="I18">
-        <v>0.09854476697684825</v>
+        <v>-0.003816191771071004</v>
       </c>
       <c r="J18">
-        <v>0.07382090195240767</v>
+        <v>-0.001908095885535502</v>
       </c>
       <c r="K18">
-        <v>31</v>
+        <v>-2.27</v>
       </c>
       <c r="L18">
-        <v>0.003616425571628558</v>
+        <v>-0.2008849557522124</v>
       </c>
       <c r="M18">
-        <v>-0</v>
+        <v>0.15</v>
       </c>
       <c r="N18">
-        <v>-0</v>
+        <v>0.0007481296758104738</v>
       </c>
       <c r="O18">
-        <v>-0</v>
+        <v>-0.06607929515418502</v>
       </c>
       <c r="P18">
         <v>-0</v>
@@ -2762,79 +2747,79 @@
         <v>-0</v>
       </c>
       <c r="R18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.15</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>1629</v>
+        <v>135.6</v>
       </c>
       <c r="V18">
-        <v>0.7559866344904399</v>
+        <v>0.6763092269326683</v>
       </c>
       <c r="W18">
-        <v>0.002422253477105798</v>
+        <v>-0.1464516129032258</v>
       </c>
       <c r="X18">
-        <v>0.1423164143839347</v>
+        <v>0.05493456357125565</v>
       </c>
       <c r="Y18">
-        <v>-0.1398941609068289</v>
+        <v>-0.2013861764744815</v>
       </c>
       <c r="Z18">
-        <v>0.5754807875965474</v>
+        <v>-1.826887040771645</v>
       </c>
       <c r="AA18">
-        <v>0.04248251079665907</v>
+        <v>0.003485875645834504</v>
       </c>
       <c r="AB18">
-        <v>0.06594911622070851</v>
+        <v>0.05483421924293829</v>
       </c>
       <c r="AC18">
-        <v>-0.02346660542404944</v>
+        <v>-0.05134834359710379</v>
       </c>
       <c r="AD18">
-        <v>4017</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>66.37128737228426</v>
+        <v>0.6106148350655117</v>
       </c>
       <c r="AF18">
-        <v>4083.371287372284</v>
+        <v>0.6106148350655117</v>
       </c>
       <c r="AG18">
-        <v>2454.371287372284</v>
+        <v>-134.9893851649345</v>
       </c>
       <c r="AH18">
-        <v>0.6545782568744325</v>
+        <v>0.003036213854580914</v>
       </c>
       <c r="AI18">
-        <v>0.2018635721760437</v>
+        <v>0.02374952287149207</v>
       </c>
       <c r="AJ18">
-        <v>0.5324973046882655</v>
+        <v>-2.06057271031258</v>
       </c>
       <c r="AK18">
-        <v>0.1319599060339549</v>
+        <v>1.228411506373678</v>
       </c>
       <c r="AL18">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>283</v>
+        <v>-0.154</v>
       </c>
       <c r="AN18">
-        <v>4.429863255403617</v>
-      </c>
-      <c r="AO18">
-        <v>2.985865724381625</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.706629121495682</v>
+        <v>-985.323979306091</v>
       </c>
       <c r="AQ18">
-        <v>2.985865724381625</v>
+        <v>0.5324675324675325</v>
       </c>
     </row>
     <row r="19">
@@ -2845,7 +2830,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UTG, Inc. (OTCPK:UTGN)</t>
+          <t>Prudential Financial, Inc. (NYSE:PRU)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2854,103 +2839,103 @@
         </is>
       </c>
       <c r="D19">
-        <v>-0.04940000000000001</v>
-      </c>
-      <c r="E19">
-        <v>-0.0272</v>
+        <v>-0.008960000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.0833</v>
       </c>
       <c r="G19">
-        <v>0.6470588235294118</v>
+        <v>0.09099370107530456</v>
       </c>
       <c r="H19">
-        <v>0.6470588235294118</v>
+        <v>0.09099370107530456</v>
       </c>
       <c r="I19">
-        <v>0.1591911764705883</v>
+        <v>0.002106806966007671</v>
       </c>
       <c r="J19">
-        <v>0.1176470588235294</v>
+        <v>0.001053403483003836</v>
       </c>
       <c r="K19">
-        <v>2.89</v>
+        <v>-65</v>
       </c>
       <c r="L19">
-        <v>0.10625</v>
+        <v>-0.001080290515049278</v>
       </c>
       <c r="M19">
-        <v>0.961</v>
+        <v>2789</v>
       </c>
       <c r="N19">
-        <v>0.008263112639724849</v>
+        <v>0.09034983429924616</v>
       </c>
       <c r="O19">
-        <v>0.3325259515570934</v>
+        <v>-42.90769230769231</v>
       </c>
       <c r="P19">
-        <v>-0</v>
+        <v>1729</v>
       </c>
       <c r="Q19">
-        <v>-0</v>
+        <v>0.05601106615396078</v>
       </c>
       <c r="R19">
-        <v>-0</v>
+        <v>-26.6</v>
       </c>
       <c r="S19">
-        <v>0.961</v>
+        <v>1060</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0.380064539261384</v>
       </c>
       <c r="U19">
-        <v>25.7</v>
+        <v>20658</v>
       </c>
       <c r="V19">
-        <v>0.2209802235597592</v>
+        <v>0.6692172380616089</v>
       </c>
       <c r="W19">
-        <v>0.02436762225969646</v>
+        <v>-0.0009878719717924557</v>
       </c>
       <c r="X19">
-        <v>0.07004810194858857</v>
+        <v>0.09474476076719875</v>
       </c>
       <c r="Y19">
-        <v>-0.04568047968889211</v>
+        <v>-0.0957326327389912</v>
       </c>
       <c r="Z19">
-        <v>0.2934196332254585</v>
+        <v>0.7167397992235376</v>
       </c>
       <c r="AA19">
-        <v>0.03451995685005394</v>
+        <v>0.0007550162009095443</v>
       </c>
       <c r="AB19">
-        <v>0.07004810194858857</v>
+        <v>0.05332746430862879</v>
       </c>
       <c r="AC19">
-        <v>-0.03552814509853463</v>
+        <v>-0.05257244810771925</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>36469</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>596.1776583114222</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>37065.17765831142</v>
       </c>
       <c r="AG19">
-        <v>-25.7</v>
+        <v>16407.17765831142</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>0.5456050768031097</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>0.3565496062172137</v>
       </c>
       <c r="AJ19">
-        <v>-0.2836644591611479</v>
+        <v>0.3470503153179193</v>
       </c>
       <c r="AK19">
-        <v>-0.2487899322362052</v>
+        <v>0.196971591589986</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2959,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>45.47256857855361</v>
       </c>
       <c r="AP19">
-        <v>-4.715596330275229</v>
+        <v>20.45782750412895</v>
       </c>
     </row>
     <row r="20">
@@ -2973,7 +2958,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kansas City Life Insurance Company (OTCPK:KCLI)</t>
+          <t>Trupanion, Inc. (NasdaqGM:TRUP)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2982,115 +2967,118 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.0119</v>
-      </c>
-      <c r="E20">
-        <v>-0.0727</v>
+        <v>0.274</v>
       </c>
       <c r="G20">
-        <v>0.04607371794871795</v>
+        <v>0.008734939759036144</v>
       </c>
       <c r="H20">
-        <v>0.04607371794871795</v>
+        <v>0.008734939759036144</v>
       </c>
       <c r="I20">
-        <v>0.0438701923076923</v>
+        <v>-0.00214555570400884</v>
       </c>
       <c r="J20">
-        <v>0.03894230769230769</v>
+        <v>-0.00214555570400884</v>
       </c>
       <c r="K20">
-        <v>19.4</v>
+        <v>-1.7</v>
       </c>
       <c r="L20">
-        <v>0.03886217948717949</v>
+        <v>-0.003657487091222031</v>
       </c>
       <c r="M20">
-        <v>10.5</v>
+        <v>0.713</v>
       </c>
       <c r="N20">
-        <v>0.03336510962821735</v>
+        <v>0.0001624256782923662</v>
       </c>
       <c r="O20">
-        <v>0.5412371134020619</v>
+        <v>-0.4194117647058823</v>
       </c>
       <c r="P20">
-        <v>10.5</v>
+        <v>-0</v>
       </c>
       <c r="Q20">
-        <v>0.03336510962821735</v>
+        <v>-0</v>
       </c>
       <c r="R20">
-        <v>0.5412371134020619</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>0.713</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>11.3</v>
+        <v>35.2</v>
       </c>
       <c r="V20">
-        <v>0.03590721321893867</v>
+        <v>0.008018771214433789</v>
       </c>
       <c r="W20">
-        <v>0.02812817166884152</v>
+        <v>-0.01280120481927711</v>
       </c>
       <c r="X20">
-        <v>0.07004810194858857</v>
+        <v>0.05505963691827934</v>
       </c>
       <c r="Y20">
-        <v>-0.04191993027974705</v>
+        <v>-0.06786084173755644</v>
       </c>
       <c r="Z20">
-        <v>0.7340204972871237</v>
+        <v>3.575762230836176</v>
       </c>
       <c r="AA20">
-        <v>0.02858445205781587</v>
+        <v>-0.007671997050549931</v>
       </c>
       <c r="AB20">
-        <v>0.07004810194858857</v>
+        <v>0.05481467072639782</v>
       </c>
       <c r="AC20">
-        <v>-0.0414636498907727</v>
+        <v>-0.06248666777694775</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>29.8</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>0.08627145611654433</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>29.88627145611655</v>
       </c>
       <c r="AG20">
-        <v>-11.3</v>
+        <v>-5.313728543883457</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>0.006762232847254716</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>0.1715765037409731</v>
       </c>
       <c r="AJ20">
-        <v>-0.03724456163480554</v>
+        <v>-0.001211966331177908</v>
       </c>
       <c r="AK20">
-        <v>-0.01465629053177691</v>
+        <v>-0.03823203895041685</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>5.889328063241107</v>
+      </c>
+      <c r="AO20">
+        <v>-0.7183098591549296</v>
       </c>
       <c r="AP20">
-        <v>-0.3869863013698631</v>
+        <v>-1.050143981004636</v>
+      </c>
+      <c r="AQ20">
+        <v>-0.7183098591549296</v>
       </c>
     </row>
     <row r="21">
@@ -3110,25 +3098,25 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.0195</v>
+        <v>0.00514</v>
       </c>
       <c r="G21">
-        <v>0.02399512789281364</v>
+        <v>0.03044727123512515</v>
       </c>
       <c r="H21">
-        <v>0.02399512789281364</v>
+        <v>0.03044727123512515</v>
       </c>
       <c r="I21">
-        <v>0.0004284690181498413</v>
+        <v>-0.01772335688207143</v>
       </c>
       <c r="J21">
-        <v>0.0004284690181498413</v>
+        <v>-0.01772335688207143</v>
       </c>
       <c r="K21">
-        <v>-7.75</v>
+        <v>-7.58</v>
       </c>
       <c r="L21">
-        <v>-0.0314656922452294</v>
+        <v>-0.03110381616741896</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -3152,55 +3140,55 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>47.1</v>
+        <v>42.3</v>
       </c>
       <c r="V21">
-        <v>0.1397626112759644</v>
+        <v>0.1461139896373057</v>
       </c>
       <c r="W21">
-        <v>-0.04288876591034865</v>
+        <v>-0.0290088021431305</v>
       </c>
       <c r="X21">
-        <v>0.07056665531364778</v>
+        <v>0.05496260741254454</v>
       </c>
       <c r="Y21">
-        <v>-0.1134554212239964</v>
+        <v>-0.08397140955567503</v>
       </c>
       <c r="Z21">
-        <v>2.404748798241911</v>
+        <v>1.202115701768322</v>
       </c>
       <c r="AA21">
-        <v>0.001030360356479723</v>
+        <v>-0.02130552559598172</v>
       </c>
       <c r="AB21">
-        <v>0.06990372895740322</v>
+        <v>0.05480397665086082</v>
       </c>
       <c r="AC21">
-        <v>-0.0688733686009235</v>
+        <v>-0.07610950224684254</v>
       </c>
       <c r="AD21">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>3.12234040414847</v>
+        <v>1.125910360804035</v>
       </c>
       <c r="AF21">
-        <v>4.58234040414847</v>
+        <v>1.125910360804035</v>
       </c>
       <c r="AG21">
-        <v>-42.51765959585153</v>
+        <v>-41.17408963919596</v>
       </c>
       <c r="AH21">
-        <v>0.01341503895876702</v>
+        <v>0.003874088030920054</v>
       </c>
       <c r="AI21">
-        <v>0.01723446693444622</v>
+        <v>0.003779162273736105</v>
       </c>
       <c r="AJ21">
-        <v>-0.1443810163200284</v>
+        <v>-0.1658066593992236</v>
       </c>
       <c r="AK21">
-        <v>-0.1943377126202702</v>
+        <v>-0.1610716596806664</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3209,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>0.3133047210300429</v>
+        <v>-0</v>
       </c>
       <c r="AP21">
-        <v>-9.12396128666342</v>
+        <v>14.12974936142621</v>
       </c>
     </row>
     <row r="22">
@@ -3223,7 +3211,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Trupanion, Inc. (NasdaqGM:TRUP)</t>
+          <t>Brighthouse Financial, Inc. (NasdaqGS:BHF)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3231,35 +3219,35 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
-      <c r="D22">
-        <v>0.273</v>
+      <c r="F22">
+        <v>0.06</v>
       </c>
       <c r="G22">
-        <v>0.009609526446967599</v>
+        <v>-0.1011417368238957</v>
       </c>
       <c r="H22">
-        <v>0.009609526446967599</v>
+        <v>-0.1011417368238957</v>
       </c>
       <c r="I22">
-        <v>-0.006398497071224464</v>
+        <v>-0.1506169991927113</v>
       </c>
       <c r="J22">
-        <v>-0.006398497071224464</v>
+        <v>-0.1506169991927113</v>
       </c>
       <c r="K22">
-        <v>-2.72</v>
+        <v>-1099</v>
       </c>
       <c r="L22">
-        <v>-0.0075325394627527</v>
+        <v>-0.1267443201476185</v>
       </c>
       <c r="M22">
-        <v>1.61</v>
+        <v>504</v>
       </c>
       <c r="N22">
-        <v>0.001253210866350121</v>
+        <v>0.155531553772566</v>
       </c>
       <c r="O22">
-        <v>-0.5919117647058824</v>
+        <v>-0.4585987261146497</v>
       </c>
       <c r="P22">
         <v>-0</v>
@@ -3271,79 +3259,73 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>1.61</v>
+        <v>504</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
       <c r="U22">
-        <v>25</v>
+        <v>6189</v>
       </c>
       <c r="V22">
-        <v>0.01945979606133728</v>
+        <v>1.909890449004783</v>
       </c>
       <c r="W22">
-        <v>-0.02126661454261142</v>
+        <v>-0.06210794009607234</v>
       </c>
       <c r="X22">
-        <v>0.07070985019194041</v>
+        <v>0.1696554628030778</v>
       </c>
       <c r="Y22">
-        <v>-0.09197646473455183</v>
+        <v>-0.2317634028991502</v>
       </c>
       <c r="Z22">
-        <v>3.540456876048397</v>
+        <v>0.3692301141202521</v>
       </c>
       <c r="AA22">
-        <v>-0.02265360295219218</v>
+        <v>-0.05561233180037473</v>
       </c>
       <c r="AB22">
-        <v>0.0699412948170683</v>
+        <v>0.05184376966388678</v>
       </c>
       <c r="AC22">
-        <v>-0.09259489776926048</v>
+        <v>-0.1074561014642615</v>
       </c>
       <c r="AD22">
-        <v>22.1</v>
+        <v>11194</v>
       </c>
       <c r="AE22">
-        <v>0.1924864620957719</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>22.29248646209577</v>
+        <v>11194</v>
       </c>
       <c r="AG22">
-        <v>-2.707513537904227</v>
+        <v>5005</v>
       </c>
       <c r="AH22">
-        <v>0.01705632334768765</v>
+        <v>0.7755031348505317</v>
       </c>
       <c r="AI22">
-        <v>0.1437367274883687</v>
+        <v>0.3791363251481795</v>
       </c>
       <c r="AJ22">
-        <v>-0.002111957415114132</v>
+        <v>0.6069977563519495</v>
       </c>
       <c r="AK22">
-        <v>-0.02081222068649673</v>
+        <v>0.2144754885155982</v>
       </c>
       <c r="AL22">
-        <v>1.29</v>
+        <v>179</v>
       </c>
       <c r="AM22">
-        <v>1.29</v>
-      </c>
-      <c r="AN22">
-        <v>6.193946188340807</v>
+        <v>179</v>
       </c>
       <c r="AO22">
-        <v>-1.875968992248062</v>
-      </c>
-      <c r="AP22">
-        <v>-0.7588322695919917</v>
+        <v>-7.29608938547486</v>
       </c>
       <c r="AQ22">
-        <v>-1.875968992248062</v>
+        <v>-7.29608938547486</v>
       </c>
     </row>
     <row r="23">
@@ -3363,31 +3345,31 @@
         </is>
       </c>
       <c r="G23">
-        <v>-0.1100371747211896</v>
+        <v>-0.1334279630943932</v>
       </c>
       <c r="H23">
-        <v>-0.1100371747211896</v>
+        <v>-0.1334279630943932</v>
       </c>
       <c r="I23">
-        <v>-0.1651652586299729</v>
+        <v>-0.1587996892301047</v>
       </c>
       <c r="J23">
-        <v>-0.1651652586299729</v>
+        <v>-0.1587996892301047</v>
       </c>
       <c r="K23">
-        <v>-22</v>
+        <v>-20.6</v>
       </c>
       <c r="L23">
-        <v>-0.1635687732342007</v>
+        <v>-0.1462029808374734</v>
       </c>
       <c r="M23">
-        <v>-0</v>
+        <v>93</v>
       </c>
       <c r="N23">
-        <v>-0</v>
+        <v>0.6245802552048354</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>-4.514563106796116</v>
       </c>
       <c r="P23">
         <v>-0</v>
@@ -3399,58 +3381,61 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>79.59999999999999</v>
+        <v>40.3</v>
       </c>
       <c r="V23">
-        <v>0.4038559107052258</v>
+        <v>0.2706514439220953</v>
       </c>
       <c r="W23">
-        <v>-0.1235955056179775</v>
+        <v>-0.06673145448655654</v>
       </c>
       <c r="X23">
-        <v>0.07442545724376415</v>
+        <v>0.06192641219739439</v>
       </c>
       <c r="Y23">
-        <v>-0.1980209628617417</v>
+        <v>-0.1286578666839509</v>
       </c>
       <c r="Z23">
-        <v>0.73459680316311</v>
+        <v>0.5600729271592029</v>
       </c>
       <c r="AA23">
-        <v>-0.1213298709831863</v>
+        <v>-0.08893940677907648</v>
       </c>
       <c r="AB23">
-        <v>0.06969678597111252</v>
+        <v>0.05434794579826201</v>
       </c>
       <c r="AC23">
-        <v>-0.1910266569542989</v>
+        <v>-0.1432873525773385</v>
       </c>
       <c r="AD23">
-        <v>18.9</v>
+        <v>28.2</v>
       </c>
       <c r="AE23">
-        <v>3.72363642865676</v>
+        <v>3.574381062608781</v>
       </c>
       <c r="AF23">
-        <v>22.62363642865676</v>
+        <v>31.77438106260878</v>
       </c>
       <c r="AG23">
-        <v>-56.97636357134324</v>
+        <v>-8.525618937391219</v>
       </c>
       <c r="AH23">
-        <v>0.1029640542837209</v>
+        <v>0.1758654485253117</v>
       </c>
       <c r="AI23">
-        <v>0.06828259122264059</v>
+        <v>0.1375666899351747</v>
       </c>
       <c r="AJ23">
-        <v>-0.4066149368051297</v>
+        <v>-0.06073486396060177</v>
       </c>
       <c r="AK23">
-        <v>-0.2263449089632527</v>
+        <v>-0.04471297554437476</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3459,138 +3444,10 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>-0.9417040358744394</v>
+        <v>-1.441717791411043</v>
       </c>
       <c r="AP23">
-        <v>2.838882091247795</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Midwest Holding Inc. (OTCPK:MDWT)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Insurance (Life)</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>-0.05860000000000001</v>
-      </c>
-      <c r="G24">
-        <v>-1.451895043731779</v>
-      </c>
-      <c r="H24">
-        <v>-1.451895043731779</v>
-      </c>
-      <c r="I24">
-        <v>-1.278864112100201</v>
-      </c>
-      <c r="J24">
-        <v>-1.278864112100201</v>
-      </c>
-      <c r="K24">
-        <v>-5.41</v>
-      </c>
-      <c r="L24">
-        <v>-1.577259475218659</v>
-      </c>
-      <c r="M24">
-        <v>-0</v>
-      </c>
-      <c r="N24">
-        <v>-0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>-0</v>
-      </c>
-      <c r="Q24">
-        <v>-0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>22.3</v>
-      </c>
-      <c r="V24">
-        <v>0.3353383458646617</v>
-      </c>
-      <c r="W24">
-        <v>2.302127659574468</v>
-      </c>
-      <c r="X24">
-        <v>0.07076294952485088</v>
-      </c>
-      <c r="Y24">
-        <v>2.231364710049617</v>
-      </c>
-      <c r="Z24">
-        <v>7.930277875153374</v>
-      </c>
-      <c r="AA24">
-        <v>-10.14174777351589</v>
-      </c>
-      <c r="AB24">
-        <v>0.06998532150745247</v>
-      </c>
-      <c r="AC24">
-        <v>-10.21173309502334</v>
-      </c>
-      <c r="AD24">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="AE24">
-        <v>0.6875195225184546</v>
-      </c>
-      <c r="AF24">
-        <v>1.246519522518455</v>
-      </c>
-      <c r="AG24">
-        <v>-21.05348047748155</v>
-      </c>
-      <c r="AH24">
-        <v>0.01839975737947867</v>
-      </c>
-      <c r="AI24">
-        <v>0.07399270340987961</v>
-      </c>
-      <c r="AJ24">
-        <v>-0.4632583682684365</v>
-      </c>
-      <c r="AK24">
-        <v>3.860558512020966</v>
-      </c>
-      <c r="AL24">
-        <v>0.846</v>
-      </c>
-      <c r="AM24">
-        <v>0.846</v>
-      </c>
-      <c r="AN24">
-        <v>-0.1297284752842887</v>
-      </c>
-      <c r="AO24">
-        <v>-5.189125295508274</v>
-      </c>
-      <c r="AP24">
-        <v>4.885931881522754</v>
-      </c>
-      <c r="AQ24">
-        <v>-5.189125295508274</v>
+        <v>0.4358700888236819</v>
       </c>
     </row>
   </sheetData>
